--- a/data/metabolomics/metabolomics_KerryBoyle.xlsx
+++ b/data/metabolomics/metabolomics_KerryBoyle.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10209"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liaoc/Documents/Source_code_for_Pseudomonas_Metabolomics_Paper/data/metabolomics/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D78A49-7A05-0844-9661-237A442C0B82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17540" tabRatio="500" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="2940" yWindow="460" windowWidth="25600" windowHeight="17540" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Replicate 1 positive mode" sheetId="3" r:id="rId1"/>
@@ -12,7 +18,7 @@
     <sheet name="Replicate 2 positive mode" sheetId="4" r:id="rId3"/>
     <sheet name="Replicate 2 negative mode" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -22,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="229">
   <si>
     <t>Compound Name</t>
   </si>
@@ -48,24 +54,6 @@
     <t>WT 3</t>
   </si>
   <si>
-    <t>ÆcbrA 1</t>
-  </si>
-  <si>
-    <t>ÆcbrA 2</t>
-  </si>
-  <si>
-    <t>ÆcbrA 3</t>
-  </si>
-  <si>
-    <t>ÆrhlA 1</t>
-  </si>
-  <si>
-    <t>ÆrhlA 2</t>
-  </si>
-  <si>
-    <t>ÆrhlA 3</t>
-  </si>
-  <si>
     <t>Methylglyoxal</t>
   </si>
   <si>
@@ -123,9 +111,6 @@
     <t>C5 H8 O3</t>
   </si>
   <si>
-    <t>5-Dioxopentanoate 2</t>
-  </si>
-  <si>
     <t>C5 H6 O4</t>
   </si>
   <si>
@@ -228,12 +213,6 @@
     <t>C7 H12 O5</t>
   </si>
   <si>
-    <t>Galactono-1</t>
-  </si>
-  <si>
-    <t>4-lactone</t>
-  </si>
-  <si>
     <t>C6 H10 O6</t>
   </si>
   <si>
@@ -249,9 +228,6 @@
     <t>C9 H10 O4</t>
   </si>
   <si>
-    <t>4-Dihydroxy-2-butanone 4-phosphate</t>
-  </si>
-  <si>
     <t>C4 H9 O6 P</t>
   </si>
   <si>
@@ -609,9 +585,6 @@
     <t>C7 H11 N O5</t>
   </si>
   <si>
-    <t>6-Diaminoheptanedioate 1</t>
-  </si>
-  <si>
     <t>C7 H14 N2 O4</t>
   </si>
   <si>
@@ -621,12 +594,6 @@
     <t>C11 H12 N2 O2</t>
   </si>
   <si>
-    <t>Acetyl-2</t>
-  </si>
-  <si>
-    <t>6-diaminopimelate</t>
-  </si>
-  <si>
     <t>C9 H16 N2 O5</t>
   </si>
   <si>
@@ -648,12 +615,6 @@
     <t>C10 H13 N5 O4</t>
   </si>
   <si>
-    <t>Succinyl-LL-2</t>
-  </si>
-  <si>
-    <t>6-diaminopimelate 1</t>
-  </si>
-  <si>
     <t>C11 H18 N2 O7</t>
   </si>
   <si>
@@ -715,12 +676,51 @@
   </si>
   <si>
     <t>isolate 21 3</t>
+  </si>
+  <si>
+    <t>cbrA 3</t>
+  </si>
+  <si>
+    <t>cbrA 2</t>
+  </si>
+  <si>
+    <t>cbrA 1</t>
+  </si>
+  <si>
+    <t>rhlA 1</t>
+  </si>
+  <si>
+    <t>rhlA 2</t>
+  </si>
+  <si>
+    <t>rhlA 3</t>
+  </si>
+  <si>
+    <t>2 6-Diaminoheptanedioate 1</t>
+  </si>
+  <si>
+    <t>Acetyl 2 6-diaminopimelate</t>
+  </si>
+  <si>
+    <t>Succinyl-LL-2 6-diaminopimelate 1</t>
+  </si>
+  <si>
+    <t>Acetyl-2 6-diaminopimelate</t>
+  </si>
+  <si>
+    <t>2 5-Dioxopentanoate 2</t>
+  </si>
+  <si>
+    <t>Galactono-1 4-lactone</t>
+  </si>
+  <si>
+    <t>3 4-Dihydroxy-2-butanone 4-phosphate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -782,6 +782,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1106,16 +1114,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:T1"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="54.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1141,48 +1152,48 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>218</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>217</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>216</v>
       </c>
       <c r="L1" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="M1" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="N1" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="O1" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="P1" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="Q1" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="R1" t="s">
-        <v>11</v>
+        <v>219</v>
       </c>
       <c r="S1" t="s">
-        <v>12</v>
+        <v>220</v>
       </c>
       <c r="T1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C2">
         <v>70.052999999999997</v>
@@ -1236,12 +1247,12 @@
         <v>9382.8928790000009</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C3">
         <v>75.033000000000001</v>
@@ -1295,12 +1306,12 @@
         <v>86224.947390000001</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C4">
         <v>87.033000000000001</v>
@@ -1354,12 +1365,12 @@
         <v>10458.34043</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C5">
         <v>87.067999999999998</v>
@@ -1413,12 +1424,12 @@
         <v>11491.22673</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C6">
         <v>89.048000000000002</v>
@@ -1472,12 +1483,12 @@
         <v>527768.23589999997</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C7">
         <v>101.048</v>
@@ -1531,12 +1542,12 @@
         <v>363241.59570000001</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B8" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C8">
         <v>103.063</v>
@@ -1590,12 +1601,12 @@
         <v>24866.66992</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="B9" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C9">
         <v>103.063</v>
@@ -1649,12 +1660,12 @@
         <v>12618.665230000001</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B10" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C10">
         <v>105.04300000000001</v>
@@ -1708,12 +1719,12 @@
         <v>95849.146479999996</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B11" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C11">
         <v>111.03100000000001</v>
@@ -1767,12 +1778,12 @@
         <v>3663.7449969999998</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C12">
         <v>115.065</v>
@@ -1826,12 +1837,12 @@
         <v>25923.67729</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B13" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C13">
         <v>117.07899999999999</v>
@@ -1885,12 +1896,12 @@
         <v>77545.663190000007</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="B14" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C14">
         <v>119.05800000000001</v>
@@ -1944,12 +1955,12 @@
         <v>32543.346529999999</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="B15" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C15">
         <v>119.05800000000001</v>
@@ -2003,12 +2014,12 @@
         <v>46337.552730000003</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B16" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C16">
         <v>121.01900000000001</v>
@@ -2062,12 +2073,12 @@
         <v>5386.3110630000001</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="B17" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C17">
         <v>129.042</v>
@@ -2121,12 +2132,12 @@
         <v>469583.99650000001</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="B18" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C18">
         <v>131.09399999999999</v>
@@ -2180,12 +2191,12 @@
         <v>134001.90059999999</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B19" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C19">
         <v>132.089</v>
@@ -2239,12 +2250,12 @@
         <v>19868.06207</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="B20" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C20">
         <v>133.03700000000001</v>
@@ -2298,12 +2309,12 @@
         <v>144955.50599999999</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="B21" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="C21">
         <v>135.03200000000001</v>
@@ -2327,12 +2338,12 @@
         <v>373.1888965</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B22" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C22">
         <v>136.04</v>
@@ -2386,12 +2397,12 @@
         <v>2914.8948019999998</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B23" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C23">
         <v>137.048</v>
@@ -2445,12 +2456,12 @@
         <v>63809.579389999999</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="B24" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C24">
         <v>137.083</v>
@@ -2504,12 +2515,12 @@
         <v>204929.88449999999</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B25" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="C25">
         <v>145.07499999999999</v>
@@ -2563,12 +2574,12 @@
         <v>24299.943080000001</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="B26" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="C26">
         <v>146.10400000000001</v>
@@ -2622,12 +2633,12 @@
         <v>9303.9840779999995</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="B27" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="C27">
         <v>149.05500000000001</v>
@@ -2672,12 +2683,12 @@
         <v>8507.1396769999992</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="B28" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C28">
         <v>155.06899999999999</v>
@@ -2731,12 +2742,12 @@
         <v>10008.323700000001</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B29" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C29">
         <v>161.06899999999999</v>
@@ -2790,12 +2801,12 @@
         <v>47307.591970000001</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B30" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="C30">
         <v>160.08500000000001</v>
@@ -2849,12 +2860,12 @@
         <v>25212.413049999999</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="B31" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C31">
         <v>161.06899999999999</v>
@@ -2908,12 +2919,12 @@
         <v>45155.844969999998</v>
       </c>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="B32" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C32">
         <v>163.05099999999999</v>
@@ -2967,12 +2978,12 @@
         <v>10498.29861</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="B33" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="C33">
         <v>165.042</v>
@@ -3020,12 +3031,12 @@
         <v>2285.0925579999998</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="B34" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C34">
         <v>165.08</v>
@@ -3079,12 +3090,12 @@
         <v>89404.44889</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="B35" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="C35">
         <v>166.06</v>
@@ -3138,12 +3149,12 @@
         <v>2768.8560790000001</v>
       </c>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="B36" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C36">
         <v>173.06800000000001</v>
@@ -3197,12 +3208,12 @@
         <v>641.68489320000003</v>
       </c>
     </row>
-    <row r="37" spans="1:21">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="B37" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C37">
         <v>174.11199999999999</v>
@@ -3256,12 +3267,12 @@
         <v>20880.926869999999</v>
       </c>
     </row>
-    <row r="38" spans="1:21">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="B38" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="C38">
         <v>175.09700000000001</v>
@@ -3315,12 +3326,12 @@
         <v>40027.528290000002</v>
       </c>
     </row>
-    <row r="39" spans="1:21">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="B39" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="C39">
         <v>176.04400000000001</v>
@@ -3371,12 +3382,12 @@
         <v>10918.917740000001</v>
       </c>
     </row>
-    <row r="40" spans="1:21">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="B40" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="C40">
         <v>177.04300000000001</v>
@@ -3430,12 +3441,12 @@
         <v>4795.6102810000002</v>
       </c>
     </row>
-    <row r="41" spans="1:21">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="B41" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="C41">
         <v>181.07499999999999</v>
@@ -3489,12 +3500,12 @@
         <v>33304.046439999998</v>
       </c>
     </row>
-    <row r="42" spans="1:21">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B42" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C42">
         <v>189.06299999999999</v>
@@ -3548,74 +3559,71 @@
         <v>95101.759749999997</v>
       </c>
     </row>
-    <row r="43" spans="1:21">
-      <c r="A43">
-        <v>2</v>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>222</v>
       </c>
       <c r="B43" t="s">
-        <v>195</v>
-      </c>
-      <c r="C43" t="s">
-        <v>196</v>
+        <v>185</v>
+      </c>
+      <c r="C43">
+        <v>190.095</v>
       </c>
       <c r="D43">
-        <v>190.095</v>
-      </c>
-      <c r="E43">
         <v>11.13</v>
       </c>
+      <c r="F43">
+        <v>7629.4738379999999</v>
+      </c>
       <c r="G43">
-        <v>7629.4738379999999</v>
+        <v>7816.6857049999999</v>
       </c>
       <c r="H43">
-        <v>7816.6857049999999</v>
+        <v>7420.8161899999996</v>
       </c>
       <c r="I43">
-        <v>7420.8161899999996</v>
+        <v>3823.3798259999999</v>
       </c>
       <c r="J43">
-        <v>3823.3798259999999</v>
+        <v>3632.4145699999999</v>
       </c>
       <c r="K43">
-        <v>3632.4145699999999</v>
+        <v>3747.125153</v>
       </c>
       <c r="L43">
-        <v>3747.125153</v>
+        <v>6444.2770350000001</v>
       </c>
       <c r="M43">
-        <v>6444.2770350000001</v>
+        <v>7157.2992270000004</v>
       </c>
       <c r="N43">
-        <v>7157.2992270000004</v>
+        <v>6343.3230919999996</v>
       </c>
       <c r="O43">
-        <v>6343.3230919999996</v>
+        <v>9410.2495650000001</v>
       </c>
       <c r="P43">
-        <v>9410.2495650000001</v>
+        <v>9739.5481020000007</v>
       </c>
       <c r="Q43">
-        <v>9739.5481020000007</v>
+        <v>9020.0216789999995</v>
       </c>
       <c r="R43">
-        <v>9020.0216789999995</v>
+        <v>6749.66392</v>
       </c>
       <c r="S43">
-        <v>6749.66392</v>
+        <v>9146.9340969999994</v>
       </c>
       <c r="T43">
-        <v>9146.9340969999994</v>
-      </c>
-      <c r="U43">
         <v>7759.171918</v>
       </c>
     </row>
-    <row r="44" spans="1:21">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="B44" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="C44">
         <v>204.09</v>
@@ -3669,74 +3677,71 @@
         <v>8210.0090519999994</v>
       </c>
     </row>
-    <row r="45" spans="1:21">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="B45" t="s">
-        <v>200</v>
-      </c>
-      <c r="C45" t="s">
-        <v>201</v>
+        <v>188</v>
+      </c>
+      <c r="C45">
+        <v>232.10599999999999</v>
       </c>
       <c r="D45">
-        <v>232.10599999999999</v>
-      </c>
-      <c r="E45">
         <v>6.81</v>
       </c>
+      <c r="F45">
+        <v>11525.53637</v>
+      </c>
       <c r="G45">
-        <v>11525.53637</v>
+        <v>15169.677890000001</v>
       </c>
       <c r="H45">
-        <v>15169.677890000001</v>
+        <v>12987.52737</v>
       </c>
       <c r="I45">
-        <v>12987.52737</v>
+        <v>4599.7874279999996</v>
       </c>
       <c r="J45">
-        <v>4599.7874279999996</v>
+        <v>1197.7662</v>
       </c>
       <c r="K45">
-        <v>1197.7662</v>
+        <v>3475.5458290000001</v>
       </c>
       <c r="L45">
-        <v>3475.5458290000001</v>
+        <v>9935.3630639999992</v>
       </c>
       <c r="M45">
-        <v>9935.3630639999992</v>
+        <v>11265.20501</v>
       </c>
       <c r="N45">
-        <v>11265.20501</v>
+        <v>12986.84204</v>
       </c>
       <c r="O45">
-        <v>12986.84204</v>
+        <v>10639.16725</v>
       </c>
       <c r="P45">
-        <v>10639.16725</v>
+        <v>9276.2382770000004</v>
       </c>
       <c r="Q45">
-        <v>9276.2382770000004</v>
+        <v>10720.33533</v>
       </c>
       <c r="R45">
-        <v>10720.33533</v>
+        <v>12135.541939999999</v>
       </c>
       <c r="S45">
-        <v>12135.541939999999</v>
+        <v>14276.182489999999</v>
       </c>
       <c r="T45">
-        <v>14276.182489999999</v>
-      </c>
-      <c r="U45">
         <v>13554.73568</v>
       </c>
     </row>
-    <row r="46" spans="1:21">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="B46" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="C46">
         <v>250.066</v>
@@ -3775,12 +3780,12 @@
         <v>2622.3041370000001</v>
       </c>
     </row>
-    <row r="47" spans="1:21">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="B47" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="C47">
         <v>251.102</v>
@@ -3834,12 +3839,12 @@
         <v>137498.4497</v>
       </c>
     </row>
-    <row r="48" spans="1:21">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="B48" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="C48">
         <v>267.09899999999999</v>
@@ -3893,74 +3898,71 @@
         <v>1987.217384</v>
       </c>
     </row>
-    <row r="49" spans="1:21">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="B49" t="s">
-        <v>209</v>
-      </c>
-      <c r="C49" t="s">
-        <v>210</v>
+        <v>195</v>
+      </c>
+      <c r="C49">
+        <v>290.11399999999998</v>
       </c>
       <c r="D49">
-        <v>290.11399999999998</v>
-      </c>
-      <c r="E49">
         <v>5.9</v>
       </c>
+      <c r="F49">
+        <v>9619.0704129999995</v>
+      </c>
       <c r="G49">
-        <v>9619.0704129999995</v>
+        <v>10009.171990000001</v>
       </c>
       <c r="H49">
-        <v>10009.171990000001</v>
+        <v>9658.2710480000005</v>
       </c>
       <c r="I49">
-        <v>9658.2710480000005</v>
+        <v>1043.540917</v>
       </c>
       <c r="J49">
-        <v>1043.540917</v>
+        <v>2535.1624449999999</v>
       </c>
       <c r="K49">
-        <v>2535.1624449999999</v>
+        <v>1417.633583</v>
       </c>
       <c r="L49">
-        <v>1417.633583</v>
+        <v>6371.9791370000003</v>
       </c>
       <c r="M49">
-        <v>6371.9791370000003</v>
+        <v>5660.9184459999997</v>
       </c>
       <c r="N49">
-        <v>5660.9184459999997</v>
+        <v>6686.0131570000003</v>
       </c>
       <c r="O49">
-        <v>6686.0131570000003</v>
+        <v>11844.23071</v>
       </c>
       <c r="P49">
-        <v>11844.23071</v>
+        <v>11346.35052</v>
       </c>
       <c r="Q49">
-        <v>11346.35052</v>
+        <v>12934.26302</v>
       </c>
       <c r="R49">
-        <v>12934.26302</v>
+        <v>9021.7120840000007</v>
       </c>
       <c r="S49">
-        <v>9021.7120840000007</v>
+        <v>13189.78873</v>
       </c>
       <c r="T49">
-        <v>13189.78873</v>
-      </c>
-      <c r="U49">
         <v>13963.654839999999</v>
       </c>
     </row>
-    <row r="50" spans="1:21">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="B50" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="C50">
         <v>293.12</v>
@@ -3969,12 +3971,12 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="51" spans="1:21">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="B51" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="C51">
         <v>297.09100000000001</v>
@@ -4028,12 +4030,12 @@
         <v>19935.287629999999</v>
       </c>
     </row>
-    <row r="52" spans="1:21">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="B52" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="C52">
         <v>338.072</v>
@@ -4099,16 +4101,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:T49"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:XFD1"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4134,48 +4139,48 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>218</v>
+      </c>
+      <c r="J1" t="s">
+        <v>217</v>
+      </c>
+      <c r="K1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L1" t="s">
+        <v>210</v>
+      </c>
+      <c r="M1" t="s">
+        <v>211</v>
+      </c>
+      <c r="N1" t="s">
+        <v>212</v>
+      </c>
+      <c r="O1" t="s">
+        <v>213</v>
+      </c>
+      <c r="P1" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>215</v>
+      </c>
+      <c r="R1" t="s">
+        <v>219</v>
+      </c>
+      <c r="S1" t="s">
+        <v>220</v>
+      </c>
+      <c r="T1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="B2" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>225</v>
-      </c>
-      <c r="M1" t="s">
-        <v>226</v>
-      </c>
-      <c r="N1" t="s">
-        <v>227</v>
-      </c>
-      <c r="O1" t="s">
-        <v>228</v>
-      </c>
-      <c r="P1" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>230</v>
-      </c>
-      <c r="R1" t="s">
-        <v>11</v>
-      </c>
-      <c r="S1" t="s">
-        <v>12</v>
-      </c>
-      <c r="T1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
       </c>
       <c r="C2">
         <v>72.021000000000001</v>
@@ -4205,12 +4210,12 @@
         <v>147.03803830000001</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>88.016000000000005</v>
@@ -4264,12 +4269,12 @@
         <v>9396.9928799999998</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C4">
         <v>90.031999999999996</v>
@@ -4323,12 +4328,12 @@
         <v>12425.51096</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <v>102.03100000000001</v>
@@ -4382,12 +4387,12 @@
         <v>6014.6463620000004</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>102.03100000000001</v>
@@ -4441,12 +4446,12 @@
         <v>6087.4010500000004</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C7">
         <v>104.011</v>
@@ -4500,12 +4505,12 @@
         <v>1122.4027289999999</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C8">
         <v>106.026</v>
@@ -4559,12 +4564,12 @@
         <v>55323.050750000002</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <v>116.01</v>
@@ -4618,12 +4623,12 @@
         <v>2047.201305</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C10">
         <v>118.026</v>
@@ -4677,12 +4682,12 @@
         <v>5071.3056059999999</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C11">
         <v>116.047</v>
@@ -4727,74 +4732,71 @@
         <v>857.52481699999998</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
-      <c r="A12">
-        <v>2</v>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>226</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" t="s">
-        <v>34</v>
+        <v>27</v>
+      </c>
+      <c r="C12">
+        <v>130.02699999999999</v>
       </c>
       <c r="D12">
-        <v>130.02699999999999</v>
-      </c>
-      <c r="E12">
         <v>1.03</v>
       </c>
+      <c r="F12">
+        <v>1551.077196</v>
+      </c>
       <c r="G12">
-        <v>1551.077196</v>
+        <v>1483.7821759999999</v>
       </c>
       <c r="H12">
-        <v>1483.7821759999999</v>
+        <v>452.34840450000002</v>
       </c>
       <c r="I12">
-        <v>452.34840450000002</v>
+        <v>662.83395610000002</v>
       </c>
       <c r="J12">
-        <v>662.83395610000002</v>
+        <v>844.21595969999998</v>
       </c>
       <c r="K12">
-        <v>844.21595969999998</v>
+        <v>744.63232149999999</v>
       </c>
       <c r="L12">
-        <v>744.63232149999999</v>
+        <v>4074.2049950000001</v>
       </c>
       <c r="M12">
-        <v>4074.2049950000001</v>
+        <v>4354.1796000000004</v>
       </c>
       <c r="N12">
-        <v>4354.1796000000004</v>
+        <v>2558.9848579999998</v>
       </c>
       <c r="O12">
-        <v>2558.9848579999998</v>
+        <v>933.5910245</v>
       </c>
       <c r="P12">
-        <v>933.5910245</v>
+        <v>939.5279835</v>
       </c>
       <c r="Q12">
-        <v>939.5279835</v>
+        <v>931.34002339999995</v>
       </c>
       <c r="R12">
-        <v>931.34002339999995</v>
+        <v>1332.76298</v>
       </c>
       <c r="S12">
-        <v>1332.76298</v>
+        <v>1825.4566130000001</v>
       </c>
       <c r="T12">
-        <v>1825.4566130000001</v>
-      </c>
-      <c r="U12">
         <v>1993.187985</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C13">
         <v>130.02600000000001</v>
@@ -4848,12 +4850,12 @@
         <v>1917.8591309999999</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C14">
         <v>130.06299999999999</v>
@@ -4907,12 +4909,12 @@
         <v>89526.800780000005</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C15">
         <v>132.042</v>
@@ -4966,12 +4968,12 @@
         <v>2545.7601730000001</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C16">
         <v>134.02199999999999</v>
@@ -5025,12 +5027,12 @@
         <v>5346.5610699999997</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C17">
         <v>134.05699999999999</v>
@@ -5075,12 +5077,12 @@
         <v>5842.0758260000002</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C18">
         <v>146.02199999999999</v>
@@ -5134,12 +5136,12 @@
         <v>25382.858359999998</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C19">
         <v>146.06899999999999</v>
@@ -5193,12 +5195,12 @@
         <v>4796.5915130000003</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C20">
         <v>147.054</v>
@@ -5252,12 +5254,12 @@
         <v>817175.85250000004</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C21">
         <v>148.03800000000001</v>
@@ -5311,12 +5313,12 @@
         <v>11303.89539</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C22">
         <v>148.072</v>
@@ -5370,12 +5372,12 @@
         <v>5483.0620120000003</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C23">
         <v>158.05799999999999</v>
@@ -5429,12 +5431,12 @@
         <v>4171.8005620000004</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C24">
         <v>162.053</v>
@@ -5488,12 +5490,12 @@
         <v>11884.232969999999</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C25">
         <v>164.04599999999999</v>
@@ -5532,12 +5534,12 @@
         <v>334.53489020000001</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B26" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C26">
         <v>167.98400000000001</v>
@@ -5570,12 +5572,12 @@
         <v>406.99507080000001</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C27">
         <v>169.999</v>
@@ -5629,12 +5631,12 @@
         <v>36547.341110000001</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C28">
         <v>174.017</v>
@@ -5679,12 +5681,12 @@
         <v>8139.097933</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B29" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C29">
         <v>176.06899999999999</v>
@@ -5738,74 +5740,71 @@
         <v>36195.857980000001</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>68</v>
+        <v>227</v>
       </c>
       <c r="B30" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30" t="s">
-        <v>70</v>
+        <v>61</v>
+      </c>
+      <c r="C30">
+        <v>178.04900000000001</v>
       </c>
       <c r="D30">
-        <v>178.04900000000001</v>
-      </c>
-      <c r="E30">
         <v>1.5</v>
       </c>
+      <c r="F30">
+        <v>115715.3747</v>
+      </c>
       <c r="G30">
-        <v>115715.3747</v>
+        <v>107178.1057</v>
       </c>
       <c r="H30">
-        <v>107178.1057</v>
+        <v>85628.411179999996</v>
       </c>
       <c r="I30">
-        <v>85628.411179999996</v>
+        <v>73682.122659999994</v>
       </c>
       <c r="J30">
-        <v>73682.122659999994</v>
+        <v>76807.66863</v>
       </c>
       <c r="K30">
-        <v>76807.66863</v>
+        <v>69332.425629999998</v>
       </c>
       <c r="L30">
-        <v>69332.425629999998</v>
+        <v>121268.4673</v>
       </c>
       <c r="M30">
-        <v>121268.4673</v>
+        <v>119972.056</v>
       </c>
       <c r="N30">
-        <v>119972.056</v>
+        <v>110769.2939</v>
       </c>
       <c r="O30">
-        <v>110769.2939</v>
+        <v>78448.420389999999</v>
       </c>
       <c r="P30">
-        <v>78448.420389999999</v>
+        <v>83205.16734</v>
       </c>
       <c r="Q30">
-        <v>83205.16734</v>
+        <v>83917.808510000003</v>
       </c>
       <c r="R30">
-        <v>83917.808510000003</v>
+        <v>75343.565619999994</v>
       </c>
       <c r="S30">
-        <v>75343.565619999994</v>
+        <v>91542.844379999995</v>
       </c>
       <c r="T30">
-        <v>91542.844379999995</v>
-      </c>
-      <c r="U30">
         <v>86010.014450000002</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B31" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C31">
         <v>180.06399999999999</v>
@@ -5859,12 +5858,12 @@
         <v>5928.481025</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B32" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C32">
         <v>182.05799999999999</v>
@@ -5909,44 +5908,41 @@
         <v>887.79639369999995</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
-      <c r="A33">
-        <v>3</v>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>228</v>
       </c>
       <c r="B33" t="s">
-        <v>75</v>
-      </c>
-      <c r="C33" t="s">
-        <v>76</v>
+        <v>66</v>
+      </c>
+      <c r="C33">
+        <v>184.01499999999999</v>
       </c>
       <c r="D33">
-        <v>184.01499999999999</v>
-      </c>
-      <c r="E33">
         <v>1.33</v>
       </c>
-      <c r="G33">
+      <c r="F33">
         <v>2460.159541</v>
       </c>
-      <c r="I33">
+      <c r="H33">
         <v>201974.84330000001</v>
       </c>
+      <c r="R33">
+        <v>3798.3147290000002</v>
+      </c>
       <c r="S33">
-        <v>3798.3147290000002</v>
+        <v>3319.2892780000002</v>
       </c>
       <c r="T33">
-        <v>3319.2892780000002</v>
-      </c>
-      <c r="U33">
         <v>661.03114689999995</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B34" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C34">
         <v>188.02699999999999</v>
@@ -5955,12 +5951,12 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B35" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C35">
         <v>188.03399999999999</v>
@@ -6014,12 +6010,12 @@
         <v>2106.2643269999999</v>
       </c>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B36" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C36">
         <v>192.02799999999999</v>
@@ -6073,12 +6069,12 @@
         <v>154878.16899999999</v>
       </c>
     </row>
-    <row r="37" spans="1:21">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B37" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C37">
         <v>196.059</v>
@@ -6096,12 +6092,12 @@
         <v>1333.890668</v>
       </c>
     </row>
-    <row r="38" spans="1:21">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B38" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C38">
         <v>230.01900000000001</v>
@@ -6155,12 +6151,12 @@
         <v>90795.536730000007</v>
       </c>
     </row>
-    <row r="39" spans="1:21">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B39" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C39">
         <v>259.04399999999998</v>
@@ -6211,12 +6207,12 @@
         <v>1698.240644</v>
       </c>
     </row>
-    <row r="40" spans="1:21">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B40" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C40">
         <v>260.02999999999997</v>
@@ -6270,12 +6266,12 @@
         <v>261584.24549999999</v>
       </c>
     </row>
-    <row r="41" spans="1:21">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B41" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C41">
         <v>276.02499999999998</v>
@@ -6329,12 +6325,12 @@
         <v>616.65304590000005</v>
       </c>
     </row>
-    <row r="42" spans="1:21">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B42" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C42">
         <v>289.08</v>
@@ -6376,12 +6372,12 @@
         <v>1062.608868</v>
       </c>
     </row>
-    <row r="43" spans="1:21">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B43" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C43">
         <v>290.041</v>
@@ -6435,12 +6431,12 @@
         <v>207591.9578</v>
       </c>
     </row>
-    <row r="44" spans="1:21">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B44" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C44">
         <v>566.053</v>
@@ -6473,12 +6469,12 @@
         <v>321.59003619999999</v>
       </c>
     </row>
-    <row r="45" spans="1:21">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B45" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C45">
         <v>607.07899999999995</v>
@@ -6487,12 +6483,12 @@
         <v>12.51</v>
       </c>
     </row>
-    <row r="46" spans="1:21">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B46" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C46">
         <v>679.09299999999996</v>
@@ -6528,12 +6524,12 @@
         <v>4849.2672130000001</v>
       </c>
     </row>
-    <row r="47" spans="1:21">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B47" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C47">
         <v>206.04400000000001</v>
@@ -6587,12 +6583,12 @@
         <v>6023.7397209999999</v>
       </c>
     </row>
-    <row r="48" spans="1:21">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B48" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C48">
         <v>214.02199999999999</v>
@@ -6646,12 +6642,12 @@
         <v>4551.0914300000004</v>
       </c>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B49" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C49">
         <v>339.99599999999998</v>
@@ -6708,16 +6704,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:T53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="35.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6743,48 +6742,48 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>218</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>217</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>216</v>
       </c>
       <c r="L1" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="M1" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="N1" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="O1" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="P1" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="Q1" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="R1" t="s">
-        <v>11</v>
+        <v>219</v>
       </c>
       <c r="S1" t="s">
-        <v>12</v>
+        <v>220</v>
       </c>
       <c r="T1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C2">
         <v>70.052999999999997</v>
@@ -6838,12 +6837,12 @@
         <v>2851.4833530000001</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C3">
         <v>75.033000000000001</v>
@@ -6897,12 +6896,12 @@
         <v>145669.5154</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C4">
         <v>87.033000000000001</v>
@@ -6956,12 +6955,12 @@
         <v>12055.86282</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C5">
         <v>87.067999999999998</v>
@@ -7015,12 +7014,12 @@
         <v>9552.6419979999991</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C6">
         <v>89.048000000000002</v>
@@ -7074,12 +7073,12 @@
         <v>928991.12250000006</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C7">
         <v>101.048</v>
@@ -7133,12 +7132,12 @@
         <v>475188.64520000003</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B8" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C8">
         <v>103.063</v>
@@ -7192,12 +7191,12 @@
         <v>77799.391459999999</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B9" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C9">
         <v>105.04300000000001</v>
@@ -7251,12 +7250,12 @@
         <v>165386.92290000001</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B10" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C10">
         <v>111.03100000000001</v>
@@ -7310,12 +7309,12 @@
         <v>5050.6299959999997</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B11" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C11">
         <v>115.06399999999999</v>
@@ -7366,12 +7365,12 @@
         <v>22202.620019999998</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B12" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C12">
         <v>117.07899999999999</v>
@@ -7425,12 +7424,12 @@
         <v>120133.27009999999</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B13" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C13">
         <v>117.042</v>
@@ -7484,12 +7483,12 @@
         <v>908.13861269999995</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="B14" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C14">
         <v>119.05800000000001</v>
@@ -7543,12 +7542,12 @@
         <v>121674.2662</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B15" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C15">
         <v>121.01900000000001</v>
@@ -7596,12 +7595,12 @@
         <v>9356.2629450000004</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="B16" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C16">
         <v>129.04300000000001</v>
@@ -7655,12 +7654,12 @@
         <v>64594.673900000002</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="B17" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C17">
         <v>129.042</v>
@@ -7714,12 +7713,12 @@
         <v>616479.33180000004</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="B18" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C18">
         <v>131.09399999999999</v>
@@ -7773,12 +7772,12 @@
         <v>227318.6868</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B19" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C19">
         <v>132.089</v>
@@ -7832,12 +7831,12 @@
         <v>23378.507679999999</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="B20" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C20">
         <v>133.03700000000001</v>
@@ -7891,12 +7890,12 @@
         <v>187612.3198</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B21" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C21">
         <v>136.04</v>
@@ -7941,12 +7940,12 @@
         <v>4626.1168559999996</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B22" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C22">
         <v>137.048</v>
@@ -8000,12 +7999,12 @@
         <v>38113.301359999998</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="B23" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C23">
         <v>137.08199999999999</v>
@@ -8059,12 +8058,12 @@
         <v>5803.9681330000003</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B24" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="C24">
         <v>145.07499999999999</v>
@@ -8118,12 +8117,12 @@
         <v>45878.409379999997</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="B25" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="C25">
         <v>146.10400000000001</v>
@@ -8177,12 +8176,12 @@
         <v>10488.30055</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="B26" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="C26">
         <v>149.05500000000001</v>
@@ -8227,12 +8226,12 @@
         <v>11803.89962</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="B27" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C27">
         <v>155.06899999999999</v>
@@ -8286,12 +8285,12 @@
         <v>16931.004970000002</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B28" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C28">
         <v>161.06899999999999</v>
@@ -8345,12 +8344,12 @@
         <v>74062.893989999997</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B29" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="C29">
         <v>160.08500000000001</v>
@@ -8404,12 +8403,12 @@
         <v>36037.511939999997</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="B30" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C30">
         <v>161.06899999999999</v>
@@ -8463,12 +8462,12 @@
         <v>64473.132299999997</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="B31" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C31">
         <v>163.05000000000001</v>
@@ -8522,12 +8521,12 @@
         <v>14888.36261</v>
       </c>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="B32" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="C32">
         <v>165.042</v>
@@ -8566,12 +8565,12 @@
         <v>1311.81456</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="B33" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C33">
         <v>165.08</v>
@@ -8625,12 +8624,12 @@
         <v>108251.2873</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="B34" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="C34">
         <v>169.08699999999999</v>
@@ -8681,12 +8680,12 @@
         <v>609.41834229999995</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="B35" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C35">
         <v>173.06899999999999</v>
@@ -8740,12 +8739,12 @@
         <v>2160.586636</v>
       </c>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="B36" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C36">
         <v>174.11099999999999</v>
@@ -8799,12 +8798,12 @@
         <v>25390.114819999999</v>
       </c>
     </row>
-    <row r="37" spans="1:21">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="B37" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="C37">
         <v>175.09700000000001</v>
@@ -8858,12 +8857,12 @@
         <v>40398.431320000003</v>
       </c>
     </row>
-    <row r="38" spans="1:21">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="B38" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="C38">
         <v>176.04400000000001</v>
@@ -8917,12 +8916,12 @@
         <v>22199.228060000001</v>
       </c>
     </row>
-    <row r="39" spans="1:21">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="B39" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="C39">
         <v>177.04300000000001</v>
@@ -8976,12 +8975,12 @@
         <v>3637.031837</v>
       </c>
     </row>
-    <row r="40" spans="1:21">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="B40" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="C40">
         <v>181.07499999999999</v>
@@ -9035,12 +9034,12 @@
         <v>44832.55702</v>
       </c>
     </row>
-    <row r="41" spans="1:21">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B41" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C41">
         <v>188.11799999999999</v>
@@ -9094,12 +9093,12 @@
         <v>6222.1408419999998</v>
       </c>
     </row>
-    <row r="42" spans="1:21">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B42" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C42">
         <v>189.06299999999999</v>
@@ -9153,74 +9152,71 @@
         <v>107235.86010000001</v>
       </c>
     </row>
-    <row r="43" spans="1:21">
-      <c r="A43">
-        <v>2</v>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>222</v>
       </c>
       <c r="B43" t="s">
-        <v>195</v>
-      </c>
-      <c r="C43" t="s">
-        <v>196</v>
+        <v>185</v>
+      </c>
+      <c r="C43">
+        <v>190.096</v>
       </c>
       <c r="D43">
-        <v>190.096</v>
-      </c>
-      <c r="E43">
         <v>11.11</v>
       </c>
+      <c r="F43">
+        <v>5046.6553530000001</v>
+      </c>
       <c r="G43">
-        <v>5046.6553530000001</v>
+        <v>6482.0911850000002</v>
       </c>
       <c r="H43">
-        <v>6482.0911850000002</v>
+        <v>6887.3367330000001</v>
       </c>
       <c r="I43">
-        <v>6887.3367330000001</v>
+        <v>4933.7617550000004</v>
       </c>
       <c r="J43">
-        <v>4933.7617550000004</v>
+        <v>4013.5303399999998</v>
       </c>
       <c r="K43">
-        <v>4013.5303399999998</v>
+        <v>3030.780749</v>
       </c>
       <c r="L43">
-        <v>3030.780749</v>
+        <v>5675.6319080000003</v>
       </c>
       <c r="M43">
-        <v>5675.6319080000003</v>
+        <v>5400.2012889999996</v>
       </c>
       <c r="N43">
-        <v>5400.2012889999996</v>
+        <v>5020.2290270000003</v>
       </c>
       <c r="O43">
-        <v>5020.2290270000003</v>
+        <v>8995.5629399999998</v>
       </c>
       <c r="P43">
-        <v>8995.5629399999998</v>
+        <v>12056.70997</v>
       </c>
       <c r="Q43">
-        <v>12056.70997</v>
+        <v>10354.6774</v>
       </c>
       <c r="R43">
-        <v>10354.6774</v>
+        <v>10214.30118</v>
       </c>
       <c r="S43">
-        <v>10214.30118</v>
+        <v>8313.2610089999998</v>
       </c>
       <c r="T43">
-        <v>8313.2610089999998</v>
-      </c>
-      <c r="U43">
         <v>9883.0519199999999</v>
       </c>
     </row>
-    <row r="44" spans="1:21">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="B44" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="C44">
         <v>204.09</v>
@@ -9274,74 +9270,71 @@
         <v>11772.38308</v>
       </c>
     </row>
-    <row r="45" spans="1:21">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="B45" t="s">
-        <v>200</v>
-      </c>
-      <c r="C45" t="s">
-        <v>201</v>
+        <v>188</v>
+      </c>
+      <c r="C45">
+        <v>232.10599999999999</v>
       </c>
       <c r="D45">
-        <v>232.10599999999999</v>
-      </c>
-      <c r="E45">
         <v>6.68</v>
       </c>
+      <c r="F45">
+        <v>13207.13502</v>
+      </c>
       <c r="G45">
-        <v>13207.13502</v>
+        <v>9690.4727719999992</v>
       </c>
       <c r="H45">
-        <v>9690.4727719999992</v>
+        <v>18681.29607</v>
       </c>
       <c r="I45">
-        <v>18681.29607</v>
+        <v>4699.3005329999996</v>
       </c>
       <c r="J45">
-        <v>4699.3005329999996</v>
+        <v>5912.524289</v>
       </c>
       <c r="K45">
-        <v>5912.524289</v>
+        <v>3372.4777079999999</v>
       </c>
       <c r="L45">
-        <v>3372.4777079999999</v>
+        <v>12410.85023</v>
       </c>
       <c r="M45">
-        <v>12410.85023</v>
+        <v>13271.252420000001</v>
       </c>
       <c r="N45">
-        <v>13271.252420000001</v>
+        <v>5982.3087050000004</v>
       </c>
       <c r="O45">
-        <v>5982.3087050000004</v>
+        <v>11298.75894</v>
       </c>
       <c r="P45">
-        <v>11298.75894</v>
+        <v>12274.969090000001</v>
       </c>
       <c r="Q45">
-        <v>12274.969090000001</v>
+        <v>12838.00964</v>
       </c>
       <c r="R45">
-        <v>12838.00964</v>
+        <v>19477.515950000001</v>
       </c>
       <c r="S45">
-        <v>19477.515950000001</v>
+        <v>15343.02514</v>
       </c>
       <c r="T45">
-        <v>15343.02514</v>
-      </c>
-      <c r="U45">
         <v>20465.284439999999</v>
       </c>
     </row>
-    <row r="46" spans="1:21">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="B46" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="C46">
         <v>250.065</v>
@@ -9380,12 +9373,12 @@
         <v>6547.5874009999998</v>
       </c>
     </row>
-    <row r="47" spans="1:21">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="B47" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="C47">
         <v>251.10400000000001</v>
@@ -9439,12 +9432,12 @@
         <v>2690.6408980000001</v>
       </c>
     </row>
-    <row r="48" spans="1:21">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="B48" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="C48">
         <v>267.09899999999999</v>
@@ -9498,74 +9491,71 @@
         <v>4828.2714260000002</v>
       </c>
     </row>
-    <row r="49" spans="1:21">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="B49" t="s">
-        <v>209</v>
-      </c>
-      <c r="C49" t="s">
-        <v>210</v>
+        <v>195</v>
+      </c>
+      <c r="C49">
+        <v>290.113</v>
       </c>
       <c r="D49">
-        <v>290.113</v>
-      </c>
-      <c r="E49">
         <v>5.83</v>
       </c>
+      <c r="F49">
+        <v>6893.4775900000004</v>
+      </c>
       <c r="G49">
-        <v>6893.4775900000004</v>
+        <v>6572.3566469999996</v>
       </c>
       <c r="H49">
-        <v>6572.3566469999996</v>
+        <v>11345.496499999999</v>
       </c>
       <c r="I49">
-        <v>11345.496499999999</v>
+        <v>2930.6465939999998</v>
       </c>
       <c r="J49">
-        <v>2930.6465939999998</v>
+        <v>415.8612225</v>
       </c>
       <c r="K49">
-        <v>415.8612225</v>
+        <v>850.56442059999995</v>
       </c>
       <c r="L49">
-        <v>850.56442059999995</v>
+        <v>5780.7991410000004</v>
       </c>
       <c r="M49">
-        <v>5780.7991410000004</v>
+        <v>5315.4339220000002</v>
       </c>
       <c r="N49">
-        <v>5315.4339220000002</v>
+        <v>5154.9432349999997</v>
       </c>
       <c r="O49">
-        <v>5154.9432349999997</v>
+        <v>9246.8956500000004</v>
       </c>
       <c r="P49">
-        <v>9246.8956500000004</v>
+        <v>11193.15596</v>
       </c>
       <c r="Q49">
-        <v>11193.15596</v>
+        <v>10166.303879999999</v>
       </c>
       <c r="R49">
-        <v>10166.303879999999</v>
+        <v>13190.159530000001</v>
       </c>
       <c r="S49">
-        <v>13190.159530000001</v>
+        <v>13926.115809999999</v>
       </c>
       <c r="T49">
-        <v>13926.115809999999</v>
-      </c>
-      <c r="U49">
         <v>12120.538759999999</v>
       </c>
     </row>
-    <row r="50" spans="1:21">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="B50" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="C50">
         <v>293.11799999999999</v>
@@ -9574,12 +9564,12 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="51" spans="1:21">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="B51" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="C51">
         <v>297.08999999999997</v>
@@ -9633,12 +9623,12 @@
         <v>35743.165959999998</v>
       </c>
     </row>
-    <row r="52" spans="1:21">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="B52" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="C52">
         <v>338.072</v>
@@ -9692,12 +9682,12 @@
         <v>6521.4959369999997</v>
       </c>
     </row>
-    <row r="53" spans="1:21">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="B53" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="C53">
         <v>398.137</v>
@@ -9747,16 +9737,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:T49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="33.83203125" customWidth="1"/>
+    <col min="2" max="2" width="53" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9782,48 +9776,48 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>218</v>
+      </c>
+      <c r="J1" t="s">
+        <v>217</v>
+      </c>
+      <c r="K1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L1" t="s">
+        <v>210</v>
+      </c>
+      <c r="M1" t="s">
+        <v>211</v>
+      </c>
+      <c r="N1" t="s">
+        <v>212</v>
+      </c>
+      <c r="O1" t="s">
+        <v>213</v>
+      </c>
+      <c r="P1" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>215</v>
+      </c>
+      <c r="R1" t="s">
+        <v>219</v>
+      </c>
+      <c r="S1" t="s">
+        <v>220</v>
+      </c>
+      <c r="T1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="B2" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>225</v>
-      </c>
-      <c r="M1" t="s">
-        <v>226</v>
-      </c>
-      <c r="N1" t="s">
-        <v>227</v>
-      </c>
-      <c r="O1" t="s">
-        <v>228</v>
-      </c>
-      <c r="P1" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>230</v>
-      </c>
-      <c r="R1" t="s">
-        <v>11</v>
-      </c>
-      <c r="S1" t="s">
-        <v>12</v>
-      </c>
-      <c r="T1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
       </c>
       <c r="C2">
         <v>72.021000000000001</v>
@@ -9853,12 +9847,12 @@
         <v>627.78784880000001</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>88.016000000000005</v>
@@ -9912,12 +9906,12 @@
         <v>10065.81012</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C4">
         <v>90.031999999999996</v>
@@ -9971,12 +9965,12 @@
         <v>6634.2666319999998</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <v>102.03100000000001</v>
@@ -10030,12 +10024,12 @@
         <v>6272.5225090000004</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <v>104.011</v>
@@ -10089,12 +10083,12 @@
         <v>852.26416040000004</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C7">
         <v>106.026</v>
@@ -10148,12 +10142,12 @@
         <v>73539.716690000001</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C8">
         <v>116.011</v>
@@ -10207,12 +10201,12 @@
         <v>1635.852038</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C9">
         <v>118.026</v>
@@ -10266,12 +10260,12 @@
         <v>4960.2109979999996</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C10">
         <v>116.047</v>
@@ -10316,74 +10310,71 @@
         <v>1011.214266</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
-      <c r="A11">
-        <v>2</v>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>226</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" t="s">
-        <v>34</v>
+        <v>27</v>
+      </c>
+      <c r="C11">
+        <v>130.02699999999999</v>
       </c>
       <c r="D11">
-        <v>130.02699999999999</v>
-      </c>
-      <c r="E11">
         <v>1.04</v>
       </c>
+      <c r="F11">
+        <v>1557.7906370000001</v>
+      </c>
       <c r="G11">
-        <v>1557.7906370000001</v>
+        <v>1868.163466</v>
       </c>
       <c r="H11">
-        <v>1868.163466</v>
+        <v>355.97441989999999</v>
       </c>
       <c r="I11">
-        <v>355.97441989999999</v>
+        <v>811.29915080000001</v>
       </c>
       <c r="J11">
-        <v>811.29915080000001</v>
+        <v>941.52196309999999</v>
       </c>
       <c r="K11">
-        <v>941.52196309999999</v>
+        <v>1045.85689</v>
       </c>
       <c r="L11">
-        <v>1045.85689</v>
+        <v>4177.8832519999996</v>
       </c>
       <c r="M11">
-        <v>4177.8832519999996</v>
+        <v>4141.6147879999999</v>
       </c>
       <c r="N11">
-        <v>4141.6147879999999</v>
+        <v>3529.8799359999998</v>
       </c>
       <c r="O11">
-        <v>3529.8799359999998</v>
+        <v>1059.2599250000001</v>
       </c>
       <c r="P11">
-        <v>1059.2599250000001</v>
+        <v>887.69601399999999</v>
       </c>
       <c r="Q11">
-        <v>887.69601399999999</v>
+        <v>1051.662996</v>
       </c>
       <c r="R11">
-        <v>1051.662996</v>
+        <v>2008.622433</v>
       </c>
       <c r="S11">
-        <v>2008.622433</v>
+        <v>2031.392468</v>
       </c>
       <c r="T11">
-        <v>2031.392468</v>
-      </c>
-      <c r="U11">
         <v>1939.115898</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C12">
         <v>130.06299999999999</v>
@@ -10437,12 +10428,12 @@
         <v>100810.19530000001</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C13">
         <v>132.042</v>
@@ -10451,12 +10442,12 @@
         <v>2.4700000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C14">
         <v>134.02099999999999</v>
@@ -10510,12 +10501,12 @@
         <v>5611.8017090000003</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C15">
         <v>134.05699999999999</v>
@@ -10569,12 +10560,12 @@
         <v>3091.188083</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C16">
         <v>146.02199999999999</v>
@@ -10628,12 +10619,12 @@
         <v>21954.011719999999</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C17">
         <v>146.06899999999999</v>
@@ -10687,12 +10678,12 @@
         <v>4039.0375319999998</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C18">
         <v>147.054</v>
@@ -10746,12 +10737,12 @@
         <v>763984.03240000003</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C19">
         <v>148.03800000000001</v>
@@ -10805,12 +10796,12 @@
         <v>8095.2506279999998</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C20">
         <v>148.03800000000001</v>
@@ -10864,12 +10855,12 @@
         <v>9523.7137889999995</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C21">
         <v>148.072</v>
@@ -10923,12 +10914,12 @@
         <v>3975.8203800000001</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C22">
         <v>158.05799999999999</v>
@@ -10982,12 +10973,12 @@
         <v>3727.6414199999999</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C23">
         <v>162.053</v>
@@ -11041,12 +11032,12 @@
         <v>9921.1357779999998</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C24">
         <v>164.04400000000001</v>
@@ -11082,12 +11073,12 @@
         <v>154.51057979999999</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C25">
         <v>167.983</v>
@@ -11123,12 +11114,12 @@
         <v>420.51554220000003</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C26">
         <v>169.999</v>
@@ -11182,12 +11173,12 @@
         <v>53773.249830000001</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C27">
         <v>174.017</v>
@@ -11235,12 +11226,12 @@
         <v>9077.0282370000004</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C28">
         <v>176.06899999999999</v>
@@ -11294,74 +11285,71 @@
         <v>34936.853799999997</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>68</v>
+        <v>227</v>
       </c>
       <c r="B29" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" t="s">
-        <v>70</v>
+        <v>61</v>
+      </c>
+      <c r="C29">
+        <v>178.04900000000001</v>
       </c>
       <c r="D29">
-        <v>178.04900000000001</v>
-      </c>
-      <c r="E29">
         <v>1.51</v>
       </c>
+      <c r="F29">
+        <v>84762.986480000007</v>
+      </c>
       <c r="G29">
-        <v>84762.986480000007</v>
+        <v>84326.270759999999</v>
       </c>
       <c r="H29">
-        <v>84326.270759999999</v>
+        <v>55437.847730000001</v>
       </c>
       <c r="I29">
-        <v>55437.847730000001</v>
+        <v>55621.934959999999</v>
       </c>
       <c r="J29">
-        <v>55621.934959999999</v>
+        <v>53301.138910000001</v>
       </c>
       <c r="K29">
-        <v>53301.138910000001</v>
+        <v>52203.37</v>
       </c>
       <c r="L29">
-        <v>52203.37</v>
+        <v>88686.864830000006</v>
       </c>
       <c r="M29">
-        <v>88686.864830000006</v>
+        <v>94859.973769999997</v>
       </c>
       <c r="N29">
-        <v>94859.973769999997</v>
+        <v>95330.473740000001</v>
       </c>
       <c r="O29">
-        <v>95330.473740000001</v>
+        <v>65145.184970000002</v>
       </c>
       <c r="P29">
-        <v>65145.184970000002</v>
+        <v>62234.089460000003</v>
       </c>
       <c r="Q29">
-        <v>62234.089460000003</v>
+        <v>75632.046660000007</v>
       </c>
       <c r="R29">
-        <v>75632.046660000007</v>
+        <v>78026.326279999994</v>
       </c>
       <c r="S29">
-        <v>78026.326279999994</v>
+        <v>68005.808220000006</v>
       </c>
       <c r="T29">
-        <v>68005.808220000006</v>
-      </c>
-      <c r="U29">
         <v>74440.819050000006</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B30" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C30">
         <v>180.06399999999999</v>
@@ -11415,12 +11403,12 @@
         <v>3630.337681</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B31" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C31">
         <v>182.05799999999999</v>
@@ -11465,65 +11453,62 @@
         <v>559.47428260000004</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
-      <c r="A32">
-        <v>3</v>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>228</v>
       </c>
       <c r="B32" t="s">
-        <v>75</v>
-      </c>
-      <c r="C32" t="s">
-        <v>76</v>
+        <v>66</v>
+      </c>
+      <c r="C32">
+        <v>184.01300000000001</v>
       </c>
       <c r="D32">
-        <v>184.01300000000001</v>
-      </c>
-      <c r="E32">
         <v>1.34</v>
       </c>
+      <c r="F32">
+        <v>2489.5132530000001</v>
+      </c>
       <c r="G32">
-        <v>2489.5132530000001</v>
+        <v>804.33946149999997</v>
       </c>
       <c r="H32">
-        <v>804.33946149999997</v>
+        <v>647462.23380000005</v>
       </c>
       <c r="I32">
-        <v>647462.23380000005</v>
+        <v>39314.88508</v>
       </c>
       <c r="J32">
-        <v>39314.88508</v>
+        <v>3342.0802159999998</v>
       </c>
       <c r="K32">
-        <v>3342.0802159999998</v>
+        <v>2408.249875</v>
       </c>
       <c r="L32">
-        <v>2408.249875</v>
-      </c>
-      <c r="M32">
         <v>785.0987652</v>
       </c>
-      <c r="P32">
+      <c r="O32">
         <v>149.52131249999999</v>
       </c>
+      <c r="Q32">
+        <v>460.28795309999998</v>
+      </c>
       <c r="R32">
-        <v>460.28795309999998</v>
+        <v>1131.974301</v>
       </c>
       <c r="S32">
-        <v>1131.974301</v>
+        <v>1257.3074959999999</v>
       </c>
       <c r="T32">
-        <v>1257.3074959999999</v>
-      </c>
-      <c r="U32">
         <v>1420.1756559999999</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B33" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C33">
         <v>188.02699999999999</v>
@@ -11535,12 +11520,12 @@
         <v>653.41379610000001</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B34" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C34">
         <v>192.02799999999999</v>
@@ -11594,12 +11579,12 @@
         <v>144153.05470000001</v>
       </c>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B35" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C35">
         <v>196.06</v>
@@ -11620,12 +11605,12 @@
         <v>162.39054530000001</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B36" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C36">
         <v>206.04300000000001</v>
@@ -11679,12 +11664,12 @@
         <v>5098.5596809999997</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B37" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C37">
         <v>214.023</v>
@@ -11738,12 +11723,12 @@
         <v>3827.1298489999999</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B38" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C38">
         <v>219.11199999999999</v>
@@ -11767,12 +11752,12 @@
         <v>332.10453100000001</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B39" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C39">
         <v>230.02</v>
@@ -11817,12 +11802,12 @@
         <v>9773.1630800000003</v>
       </c>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B40" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C40">
         <v>244.02600000000001</v>
@@ -11876,12 +11861,12 @@
         <v>1263.900069</v>
       </c>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B41" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C41">
         <v>259.04599999999999</v>
@@ -11908,12 +11893,12 @@
         <v>294.50802199999998</v>
       </c>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B42" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C42">
         <v>260.02999999999997</v>
@@ -11967,12 +11952,12 @@
         <v>113100.1683</v>
       </c>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B43" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C43">
         <v>276.024</v>
@@ -12026,12 +12011,12 @@
         <v>583.86872679999999</v>
       </c>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B44" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C44">
         <v>289.08</v>
@@ -12073,12 +12058,12 @@
         <v>451.71597800000001</v>
       </c>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B45" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C45">
         <v>290.041</v>
@@ -12132,12 +12117,12 @@
         <v>241055.5276</v>
       </c>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B46" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C46">
         <v>339.99599999999998</v>
@@ -12182,12 +12167,12 @@
         <v>15761.067650000001</v>
       </c>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B47" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C47">
         <v>566.05200000000002</v>
@@ -12217,12 +12202,12 @@
         <v>1234.8748929999999</v>
       </c>
     </row>
-    <row r="48" spans="1:20">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B48" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C48">
         <v>607.07799999999997</v>
@@ -12231,12 +12216,12 @@
         <v>12.55</v>
       </c>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B49" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C49">
         <v>679.09199999999998</v>
